--- a/documentos/Codigo de Conceptos2 corregido .xlsx
+++ b/documentos/Codigo de Conceptos2 corregido .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044A8992-DDFD-4404-B673-87BCB4AB475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60339F5-D862-46F6-8E7C-A5CE1B43778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9F7C2D0A-BA3B-4A28-9D2B-B50CB4B8BA33}"/>
   </bookViews>
@@ -734,10 +734,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,19 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1081,14 +1081,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401D033-5FF1-4A31-9F69-CB9544B477CB}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="C115" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,92 +1173,92 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="A3" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1326,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="12">
         <v>110001</v>
@@ -1353,7 +1352,7 @@
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="12">
         <v>110002</v>
@@ -1380,7 +1379,7 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="12">
         <v>110003</v>
@@ -1407,7 +1406,7 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="12">
         <v>110004</v>
@@ -1434,7 +1433,7 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="12">
         <v>110005</v>
@@ -1461,7 +1460,7 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="12">
         <v>110006</v>
@@ -1551,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="12">
         <v>110008</v>
@@ -1578,7 +1577,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="12">
         <v>110009</v>
@@ -2109,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="13" t="s">
         <v>3</v>
@@ -2199,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="12">
         <v>120001</v>
@@ -2226,7 +2225,7 @@
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="12">
         <v>120002</v>
@@ -2316,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="13" t="s">
         <v>4</v>
@@ -2343,7 +2342,7 @@
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="11">
         <v>130000</v>
@@ -2370,7 +2369,7 @@
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="12">
         <v>130001</v>
@@ -2397,7 +2396,7 @@
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="12">
         <v>130002</v>
@@ -2424,7 +2423,7 @@
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="12">
         <v>130003</v>
@@ -2451,7 +2450,7 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
-    <row r="33" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13" t="s">
         <v>5</v>
@@ -2478,7 +2477,7 @@
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="11">
         <v>140000</v>
@@ -2505,7 +2504,7 @@
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
     </row>
-    <row r="35" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13" t="s">
         <v>6</v>
@@ -2532,7 +2531,7 @@
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="11">
         <v>150000</v>
@@ -2559,7 +2558,7 @@
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
     </row>
-    <row r="37" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13" t="s">
         <v>7</v>
@@ -2586,7 +2585,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="11">
         <v>160000</v>
@@ -2613,7 +2612,7 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="12">
         <v>160001</v>
@@ -2640,7 +2639,7 @@
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="12">
         <v>160002</v>
@@ -2667,7 +2666,7 @@
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="12">
         <v>160003</v>
@@ -2694,7 +2693,7 @@
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="12">
         <v>160004</v>
@@ -2973,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13" t="s">
         <v>8</v>
@@ -3000,7 +2999,7 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="11">
         <v>170000</v>
@@ -3027,7 +3026,7 @@
       <c r="T48" s="17"/>
       <c r="U48" s="17"/>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="12">
         <v>170001</v>
@@ -3054,7 +3053,7 @@
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="12">
         <v>170002</v>
@@ -3081,7 +3080,7 @@
       <c r="T50" s="17"/>
       <c r="U50" s="17"/>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="12">
         <v>170003</v>
@@ -3108,7 +3107,7 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="12">
         <v>170004</v>
@@ -3135,7 +3134,7 @@
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="12">
         <v>170005</v>
@@ -3162,7 +3161,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="12">
         <v>170006</v>
@@ -3189,7 +3188,7 @@
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
     </row>
-    <row r="55" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13" t="s">
         <v>9</v>
@@ -3216,7 +3215,7 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="11">
         <v>499999</v>
@@ -3243,7 +3242,7 @@
       <c r="T56" s="17"/>
       <c r="U56" s="17"/>
     </row>
-    <row r="57" spans="1:21" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>10</v>
       </c>
@@ -3272,7 +3271,7 @@
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="12">
         <v>510001</v>
@@ -3299,7 +3298,7 @@
       <c r="T58" s="17"/>
       <c r="U58" s="17"/>
     </row>
-    <row r="59" spans="1:21" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="12">
         <v>510002</v>
@@ -3326,7 +3325,7 @@
       <c r="T59" s="17"/>
       <c r="U59" s="17"/>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="12">
         <v>510003</v>
@@ -3353,7 +3352,7 @@
       <c r="T60" s="17"/>
       <c r="U60" s="17"/>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="12">
         <v>510004</v>
@@ -3380,7 +3379,7 @@
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="12">
         <v>510005</v>
@@ -3407,7 +3406,7 @@
       <c r="T62" s="17"/>
       <c r="U62" s="17"/>
     </row>
-    <row r="63" spans="1:21" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="12">
         <v>510006</v>
@@ -3434,7 +3433,7 @@
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="12">
         <v>510007</v>
@@ -3461,7 +3460,7 @@
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
     </row>
-    <row r="65" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13" t="s">
         <v>11</v>
@@ -3488,7 +3487,7 @@
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="11">
         <v>520000</v>
@@ -3515,7 +3514,7 @@
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="12">
         <v>520001</v>
@@ -3542,7 +3541,7 @@
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="12">
         <v>520002</v>
@@ -3569,7 +3568,7 @@
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="12">
         <v>520003</v>
@@ -3596,7 +3595,7 @@
       <c r="T69" s="17"/>
       <c r="U69" s="17"/>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="12">
         <v>520004</v>
@@ -3623,7 +3622,7 @@
       <c r="T70" s="17"/>
       <c r="U70" s="17"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="12">
         <v>520005</v>
@@ -3650,7 +3649,7 @@
       <c r="T71" s="17"/>
       <c r="U71" s="17"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="12">
         <v>520006</v>
@@ -3677,7 +3676,7 @@
       <c r="T72" s="17"/>
       <c r="U72" s="17"/>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="12">
         <v>520007</v>
@@ -3704,7 +3703,7 @@
       <c r="T73" s="17"/>
       <c r="U73" s="17"/>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="12">
         <v>520008</v>
@@ -3731,7 +3730,7 @@
       <c r="T74" s="17"/>
       <c r="U74" s="17"/>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="12">
         <v>520009</v>
@@ -3758,7 +3757,7 @@
       <c r="T75" s="17"/>
       <c r="U75" s="17"/>
     </row>
-    <row r="76" spans="1:21" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="12">
         <v>520010</v>
@@ -3785,7 +3784,7 @@
       <c r="T76" s="17"/>
       <c r="U76" s="17"/>
     </row>
-    <row r="77" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="12">
         <v>520011</v>
@@ -3812,7 +3811,7 @@
       <c r="T77" s="17"/>
       <c r="U77" s="17"/>
     </row>
-    <row r="78" spans="1:21" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="12">
         <v>520012</v>
@@ -3839,7 +3838,7 @@
       <c r="T78" s="17"/>
       <c r="U78" s="17"/>
     </row>
-    <row r="79" spans="1:21" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="12">
         <v>520013</v>
@@ -3866,7 +3865,7 @@
       <c r="T79" s="17"/>
       <c r="U79" s="17"/>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="12">
         <v>520014</v>
@@ -4082,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="12">
         <v>520018</v>
@@ -4236,11 +4235,11 @@
       </c>
     </row>
     <row r="87" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
-      <c r="B87" s="69">
+      <c r="A87" s="60"/>
+      <c r="B87" s="61">
         <v>521002</v>
       </c>
-      <c r="C87" s="70" t="s">
+      <c r="C87" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D87" s="31">
@@ -4424,7 +4423,7 @@
       </c>
       <c r="V89"/>
     </row>
-    <row r="90" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="13" t="s">
         <v>12</v>
@@ -4451,7 +4450,7 @@
       <c r="T90" s="17"/>
       <c r="U90" s="17"/>
     </row>
-    <row r="91" spans="1:22" s="43" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="37"/>
       <c r="B91" s="38">
         <v>530000</v>
@@ -4478,7 +4477,7 @@
       <c r="T91" s="42"/>
       <c r="U91" s="42"/>
     </row>
-    <row r="92" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="13" t="s">
         <v>13</v>
@@ -4505,7 +4504,7 @@
       <c r="T92" s="17"/>
       <c r="U92" s="17"/>
     </row>
-    <row r="93" spans="1:22" s="50" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="44"/>
       <c r="B93" s="45">
         <v>540000</v>
@@ -4595,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="13" t="s">
         <v>14</v>
@@ -4622,7 +4621,7 @@
       <c r="T95" s="17"/>
       <c r="U95" s="17"/>
     </row>
-    <row r="96" spans="1:22" s="57" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="51"/>
       <c r="B96" s="52">
         <v>550000</v>
@@ -4649,7 +4648,7 @@
       <c r="T96" s="56"/>
       <c r="U96" s="56"/>
     </row>
-    <row r="97" spans="1:21" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="14" t="s">
         <v>15</v>
@@ -4676,7 +4675,7 @@
       <c r="T97" s="17"/>
       <c r="U97" s="17"/>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="11">
         <v>799999</v>
@@ -4894,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="11">
         <v>810003</v>
@@ -5016,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="11">
         <v>810005</v>
@@ -5106,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="11">
         <v>810007</v>
@@ -5133,7 +5132,7 @@
       <c r="T106" s="17"/>
       <c r="U106" s="17"/>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="11">
         <v>810008</v>
@@ -5160,7 +5159,7 @@
       <c r="T107" s="17"/>
       <c r="U107" s="17"/>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="11">
         <v>810009</v>
@@ -5187,7 +5186,7 @@
       <c r="T108" s="17"/>
       <c r="U108" s="17"/>
     </row>
-    <row r="109" spans="1:21" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="11">
         <v>810010</v>
@@ -5214,7 +5213,7 @@
       <c r="T109" s="17"/>
       <c r="U109" s="17"/>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="11">
         <v>820000</v>
@@ -5447,7 +5446,7 @@
         <v>64</v>
       </c>
       <c r="D114" s="40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E114" s="41" t="s">
         <v>20</v>
@@ -5518,7 +5517,7 @@
         <v>65</v>
       </c>
       <c r="D115" s="40">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E115" s="41"/>
       <c r="F115" s="22">
@@ -5578,7 +5577,7 @@
       <c r="AB115" s="59"/>
       <c r="AC115" s="59"/>
     </row>
-    <row r="116" spans="1:29" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="13" t="s">
         <v>17</v>
@@ -5644,35 +5643,29 @@
       <c r="C122" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:U116" xr:uid="{B401D033-5FF1-4A31-9F69-CB9544B477CB}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:U116" xr:uid="{B401D033-5FF1-4A31-9F69-CB9544B477CB}"/>
   <mergeCells count="21">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/Codigo de Conceptos2 corregido .xlsx
+++ b/documentos/Codigo de Conceptos2 corregido .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60339F5-D862-46F6-8E7C-A5CE1B43778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA10744-D13E-4130-9EB8-E171B51E2F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9F7C2D0A-BA3B-4A28-9D2B-B50CB4B8BA33}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>Tipo de concepto</t>
   </si>
@@ -747,12 +747,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,6 +757,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,10 +1084,10 @@
   <dimension ref="A2:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C115" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,22 +1173,22 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="69" t="s">
+      <c r="A3" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="69" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="63" t="s">
@@ -1238,12 +1238,12 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="66"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="64"/>
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
@@ -5408,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="O113" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113" s="41">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="M114" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" s="41">
         <v>0</v>
@@ -5519,7 +5519,9 @@
       <c r="D115" s="40">
         <v>88</v>
       </c>
-      <c r="E115" s="41"/>
+      <c r="E115" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F115" s="22">
         <v>1</v>
       </c>
@@ -5536,16 +5538,16 @@
         <v>0</v>
       </c>
       <c r="K115" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" s="41">
         <v>0</v>
@@ -5645,27 +5647,27 @@
   </sheetData>
   <autoFilter ref="A4:U116" xr:uid="{B401D033-5FF1-4A31-9F69-CB9544B477CB}"/>
   <mergeCells count="21">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/Codigo de Conceptos2 corregido .xlsx
+++ b/documentos/Codigo de Conceptos2 corregido .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\Documents\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA10744-D13E-4130-9EB8-E171B51E2F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8568107-7162-49B8-BC7E-8F9C629A06C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9F7C2D0A-BA3B-4A28-9D2B-B50CB4B8BA33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9F7C2D0A-BA3B-4A28-9D2B-B50CB4B8BA33}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
   <si>
     <t>Tipo de concepto</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>JORNAL PERSONAL TEMPORARIO LEY 26727</t>
+  </si>
+  <si>
+    <t>NO RENUMERATIVO</t>
   </si>
 </sst>
 </file>
@@ -747,6 +750,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,12 +766,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,10 +1087,10 @@
   <dimension ref="A2:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,22 +1176,22 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="67" t="s">
+      <c r="A3" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="65" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="63" t="s">
@@ -1238,12 +1241,12 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="64"/>
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
@@ -4531,103 +4534,67 @@
       <c r="T93" s="49"/>
       <c r="U93" s="49"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="12">
-        <v>540001</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D94" s="7">
-        <v>68</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="22">
-        <v>1</v>
-      </c>
-      <c r="G94" s="16">
-        <v>0</v>
-      </c>
-      <c r="H94" s="16">
-        <v>0</v>
-      </c>
-      <c r="I94" s="16">
-        <v>0</v>
-      </c>
-      <c r="J94" s="16">
-        <v>0</v>
-      </c>
-      <c r="K94" s="16">
-        <v>1</v>
-      </c>
-      <c r="L94" s="16">
-        <v>1</v>
-      </c>
-      <c r="M94" s="16">
-        <v>1</v>
-      </c>
-      <c r="N94" s="16">
-        <v>1</v>
-      </c>
-      <c r="O94" s="16">
-        <v>0</v>
-      </c>
-      <c r="P94" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="16">
-        <v>0</v>
-      </c>
-      <c r="R94" s="16">
-        <v>0</v>
-      </c>
-      <c r="S94" s="16">
-        <v>0</v>
-      </c>
-      <c r="T94" s="16">
-        <v>0</v>
-      </c>
-      <c r="U94" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="13" t="s">
+      <c r="B94" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-    </row>
-    <row r="96" spans="1:22" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D94" s="7"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+    </row>
+    <row r="95" spans="1:22" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="51"/>
+      <c r="B95" s="52">
+        <v>550000</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="54"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="56"/>
+      <c r="P95" s="56"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="56"/>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
+    </row>
+    <row r="96" spans="1:22" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="51"/>
       <c r="B96" s="52">
-        <v>550000</v>
+        <v>551000</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D96" s="54"/>
       <c r="E96" s="55"/>
@@ -5647,27 +5614,27 @@
   </sheetData>
   <autoFilter ref="A4:U116" xr:uid="{B401D033-5FF1-4A31-9F69-CB9544B477CB}"/>
   <mergeCells count="21">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
